--- a/data/testresult.xlsx
+++ b/data/testresult.xlsx
@@ -508,12 +508,12 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"mobile_phone": "13498237431","pwd": 12345678,"type":0,"reg_name":"1234567891"} </t>
+          <t xml:space="preserve">{"mobile_phone": "18330238795","pwd": 12345678,"type":0,"reg_name":"1234567891"} </t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': 'OK', 'data': {'id': 2115487, 'reg_name': '1234567891', 'mobile_phone': '13498237431'}, 'copyright': 'Copyright 柠檬班 © 2017-2020 湖南省零檬信息技术有限公司 All Rights Reserved'}</t>
+          <t>{'code': 0, 'msg': 'OK', 'data': {'id': 2952, 'reg_name': '1234567891', 'mobile_phone': '18330238795'}, 'copyright': 'Copyright 柠檬班 © 2017-2020 湖南省零檬信息技术有限公司 All Rights Reserved'}</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -544,12 +544,12 @@
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"mobile_phone": "13060746952","pwd": 12345678,"type":1,"reg_name":"1234567891"} </t>
+          <t xml:space="preserve">{"mobile_phone": "15119121396","pwd": 12345678,"type":1,"reg_name":"1234567891"} </t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': 'OK', 'data': {'id': 2115398, 'reg_name': '1234567891', 'mobile_phone': '13060746952'}, 'copyright': 'Copyright 柠檬班 © 2017-2020 湖南省零檬信息技术有限公司 All Rights Reserved'}</t>
+          <t>{'code': 0, 'msg': 'OK', 'data': {'id': 2953, 'reg_name': '1234567891', 'mobile_phone': '15119121396'}, 'copyright': 'Copyright 柠檬班 © 2017-2020 湖南省零檬信息技术有限公司 All Rights Reserved'}</t>
         </is>
       </c>
       <c r="G3" s="3" t="inlineStr">
@@ -614,12 +614,12 @@
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"mobile_phone": "15854499807","pwd": 12345678,"type":0} </t>
+          <t xml:space="preserve">{"mobile_phone": "13215705008","pwd": 12345678,"type":0} </t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': 'OK', 'data': {'id': 2115488, 'reg_name': '小柠檬', 'mobile_phone': '15854499807'}, 'copyright': 'Copyright 柠檬班 © 2017-2020 湖南省零檬信息技术有限公司 All Rights Reserved'}</t>
+          <t>{'code': 0, 'msg': 'OK', 'data': {'id': 2954, 'reg_name': '小柠檬', 'mobile_phone': '13215705008'}, 'copyright': 'Copyright 柠檬班 © 2017-2020 湖南省零檬信息技术有限公司 All Rights Reserved'}</t>
         </is>
       </c>
       <c r="G5" s="3" t="inlineStr">

--- a/data/testresult.xlsx
+++ b/data/testresult.xlsx
@@ -508,12 +508,12 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"mobile_phone": "18330238795","pwd": 12345678,"type":0,"reg_name":"1234567891"} </t>
+          <t xml:space="preserve">{"mobile_phone": "13914080150","pwd": 12345678,"type":0,"reg_name":"1234567891"} </t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': 'OK', 'data': {'id': 2952, 'reg_name': '1234567891', 'mobile_phone': '18330238795'}, 'copyright': 'Copyright 柠檬班 © 2017-2020 湖南省零檬信息技术有限公司 All Rights Reserved'}</t>
+          <t>{'code': 0, 'msg': 'OK', 'data': {'id': 175769, 'reg_name': '1234567891', 'mobile_phone': '13914080150'}, 'copyright': 'Copyright 柠檬班 © 2017-2020 湖南省零檬信息技术有限公司 All Rights Reserved'}</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -544,12 +544,12 @@
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"mobile_phone": "15119121396","pwd": 12345678,"type":1,"reg_name":"1234567891"} </t>
+          <t xml:space="preserve">{"mobile_phone": "18640262129","pwd": 12345678,"type":1,"reg_name":"1234567891"} </t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': 'OK', 'data': {'id': 2953, 'reg_name': '1234567891', 'mobile_phone': '15119121396'}, 'copyright': 'Copyright 柠檬班 © 2017-2020 湖南省零檬信息技术有限公司 All Rights Reserved'}</t>
+          <t>{'code': 0, 'msg': 'OK', 'data': {'id': 175770, 'reg_name': '1234567891', 'mobile_phone': '18640262129'}, 'copyright': 'Copyright 柠檬班 © 2017-2020 湖南省零檬信息技术有限公司 All Rights Reserved'}</t>
         </is>
       </c>
       <c r="G3" s="3" t="inlineStr">
@@ -579,12 +579,12 @@
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"mobile_phone": "15823769071","pwd": 12345678,"reg_name":"1234567891"} </t>
+          <t xml:space="preserve">{"mobile_phone": "18437164844","pwd": 12345678,"reg_name":"1234567891"} </t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': 'OK', 'data': {'id': 2115399, 'reg_name': '1234567891', 'mobile_phone': '15823769071'}, 'copyright': 'Copyright 柠檬班 © 2017-2020 湖南省零檬信息技术有限公司 All Rights Reserved'}</t>
+          <t>{'code': 0, 'msg': 'OK', 'data': {'id': 175756, 'reg_name': '1234567891', 'mobile_phone': '18437164844'}, 'copyright': 'Copyright 柠檬班 © 2017-2020 湖南省零檬信息技术有限公司 All Rights Reserved'}</t>
         </is>
       </c>
       <c r="G4" s="3" t="inlineStr">
@@ -614,12 +614,12 @@
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"mobile_phone": "13215705008","pwd": 12345678,"type":0} </t>
+          <t xml:space="preserve">{"mobile_phone": "15713828851","pwd": 12345678,"type":0} </t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': 'OK', 'data': {'id': 2954, 'reg_name': '小柠檬', 'mobile_phone': '13215705008'}, 'copyright': 'Copyright 柠檬班 © 2017-2020 湖南省零檬信息技术有限公司 All Rights Reserved'}</t>
+          <t>{'code': 0, 'msg': 'OK', 'data': {'id': 175771, 'reg_name': '小柠檬', 'mobile_phone': '15713828851'}, 'copyright': 'Copyright 柠檬班 © 2017-2020 湖南省零檬信息技术有限公司 All Rights Reserved'}</t>
         </is>
       </c>
       <c r="G5" s="3" t="inlineStr">
@@ -649,12 +649,12 @@
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"mobile_phone": "13480428455","pwd": 12345678,"type":1} </t>
+          <t xml:space="preserve">{"mobile_phone": "18452388143","pwd": 12345678,"type":1} </t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': 'OK', 'data': {'id': 2115400, 'reg_name': '小柠檬', 'mobile_phone': '13480428455'}, 'copyright': 'Copyright 柠檬班 © 2017-2020 湖南省零檬信息技术有限公司 All Rights Reserved'}</t>
+          <t>{'code': 0, 'msg': 'OK', 'data': {'id': 175772, 'reg_name': '小柠檬', 'mobile_phone': '18452388143'}, 'copyright': 'Copyright 柠檬班 © 2017-2020 湖南省零檬信息技术有限公司 All Rights Reserved'}</t>
         </is>
       </c>
       <c r="G6" s="3" t="inlineStr">
@@ -684,12 +684,12 @@
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"mobile_phone": "15859293985","pwd": 12345678} </t>
+          <t xml:space="preserve">{"mobile_phone": "15973809543","pwd": 12345678} </t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': 'OK', 'data': {'id': 2115401, 'reg_name': '小柠檬', 'mobile_phone': '15859293985'}, 'copyright': 'Copyright 柠檬班 © 2017-2020 湖南省零檬信息技术有限公司 All Rights Reserved'}</t>
+          <t>{'code': 0, 'msg': 'OK', 'data': {'id': 175773, 'reg_name': '小柠檬', 'mobile_phone': '15973809543'}, 'copyright': 'Copyright 柠檬班 © 2017-2020 湖南省零檬信息技术有限公司 All Rights Reserved'}</t>
         </is>
       </c>
       <c r="G7" s="3" t="inlineStr">
